--- a/KeywordDriven.Desktop/TestCasesEmpty.xlsx
+++ b/KeywordDriven.Desktop/TestCasesEmpty.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E587CC9-2B6B-479F-B3C4-0CCB970EBAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91617E89-5D5F-48DA-8132-59D08BE535EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="502" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="502" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="4" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>ActionKeyword</t>
   </si>
   <si>
-    <t>DataSet</t>
-  </si>
-  <si>
     <t>RefreshBrowser</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>MobileDeveices</t>
+  </si>
+  <si>
+    <t>TestData</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -593,16 +593,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -632,32 +632,32 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -677,12 +677,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB1471F-1CB0-4621-A8B3-BF63F774307A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -718,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -753,16 +753,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -799,25 +799,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/KeywordDriven.Desktop/TestCasesEmpty.xlsx
+++ b/KeywordDriven.Desktop/TestCasesEmpty.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91617E89-5D5F-48DA-8132-59D08BE535EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F1440-4BCF-41BA-8A3D-3628382400F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="502" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,8 +14,9 @@
     <sheet name="TestSteps" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ActionKeywords">Settings!$A$2:$A$16</definedName>
+    <definedName name="ActionKeywords">Settings!$A$2:$A$1048576</definedName>
     <definedName name="Browsers">Settings!$B$2:$B$3</definedName>
+    <definedName name="PageObjects">Locators!$A$2:$A$1048576</definedName>
     <definedName name="RunMode">Settings!$D$2:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -576,10 +577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -703,10 +705,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB1471F-1CB0-4621-A8B3-BF63F774307A}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -732,10 +735,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -779,10 +783,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -823,9 +828,12 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{CC6D686A-9AB3-478A-A6D0-7182D785B584}">
       <formula1>ActionKeywords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{C5C4DC3A-1243-4780-8F51-D902EFCAFB32}">
+      <formula1>PageObjects</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KeywordDriven.Desktop/TestCasesEmpty.xlsx
+++ b/KeywordDriven.Desktop/TestCasesEmpty.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F1440-4BCF-41BA-8A3D-3628382400F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60274952-7F34-4DF9-84AE-9B1EA3D6E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="502" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>TestData</t>
+  </si>
+  <si>
+    <t>HasText</t>
   </si>
 </sst>
 </file>
@@ -578,22 +581,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -607,7 +610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -621,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -632,69 +635,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -712,14 +720,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -742,17 +750,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.90625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="5.88671875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.08984375" style="5"/>
-    <col min="6" max="16384" width="9.08984375" style="1"/>
+    <col min="5" max="5" width="9.109375" style="5"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -786,23 +794,23 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.36328125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.08984375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.81640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.81640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.90625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="10"/>
+    <col min="1" max="1" width="13.77734375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.77734375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.77734375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>

--- a/KeywordDriven.Desktop/TestCasesEmpty.xlsx
+++ b/KeywordDriven.Desktop/TestCasesEmpty.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60274952-7F34-4DF9-84AE-9B1EA3D6E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5C5225-2909-4FF6-A9E5-248573FE95EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Description</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>HasText</t>
+  </si>
+  <si>
+    <t>GetCaptcha</t>
+  </si>
+  <si>
+    <t>InputCaptcha</t>
   </si>
 </sst>
 </file>
@@ -581,10 +587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -703,6 +709,16 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +811,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
